--- a/jogos_2025-05-20.xlsx
+++ b/jogos_2025-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -229,12 +229,12 @@
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Belarus Vysheyshaya Liga</t>
+  </si>
+  <si>
     <t>Georgia Erovnuli Liga</t>
   </si>
   <si>
-    <t>Belarus Vysheyshaya Liga</t>
-  </si>
-  <si>
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t>South Africa Premier Soccer League</t>
   </si>
   <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
     <t>England Premier League</t>
   </si>
   <si>
@@ -268,21 +271,21 @@
     <t>Hebar 1918</t>
   </si>
   <si>
+    <t>Naftan</t>
+  </si>
+  <si>
     <t>Dila</t>
   </si>
   <si>
-    <t>Naftan</t>
-  </si>
-  <si>
     <t>HJK</t>
   </si>
   <si>
+    <t>Saburtalo</t>
+  </si>
+  <si>
     <t>Al Quadisiya</t>
   </si>
   <si>
-    <t>Saburtalo</t>
-  </si>
-  <si>
     <t>Al Taawon</t>
   </si>
   <si>
@@ -292,21 +295,24 @@
     <t>Shabab Al Ahli Dubai</t>
   </si>
   <si>
+    <t>Djurgården W</t>
+  </si>
+  <si>
+    <t>Torpedo Kutaisi</t>
+  </si>
+  <si>
     <t>Slavia</t>
   </si>
   <si>
-    <t>Torpedo Kutaisi</t>
-  </si>
-  <si>
-    <t>Djurgården W</t>
-  </si>
-  <si>
     <t>Septemvri Sofia</t>
   </si>
   <si>
     <t>SuperSport United</t>
   </si>
   <si>
+    <t>FK Košice</t>
+  </si>
+  <si>
     <t>Al Shabab</t>
   </si>
   <si>
@@ -331,21 +337,21 @@
     <t>Botev Vratsa</t>
   </si>
   <si>
+    <t>Neman Grodno</t>
+  </si>
+  <si>
     <t>Samgurali</t>
   </si>
   <si>
-    <t>Neman Grodno</t>
-  </si>
-  <si>
     <t>SJK</t>
   </si>
   <si>
+    <t>Dinamo Tbilisi</t>
+  </si>
+  <si>
     <t>Al Orubah</t>
   </si>
   <si>
-    <t>Dinamo Tbilisi</t>
-  </si>
-  <si>
     <t>Al Riyadh</t>
   </si>
   <si>
@@ -355,19 +361,22 @@
     <t>Dibba Al Hisn</t>
   </si>
   <si>
+    <t>AIK Women</t>
+  </si>
+  <si>
+    <t>Kolkheti Poti</t>
+  </si>
+  <si>
     <t>Torpedo BelAZ</t>
   </si>
   <si>
-    <t>Kolkheti Poti</t>
-  </si>
-  <si>
-    <t>AIK Women</t>
-  </si>
-  <si>
     <t>Lokomotiv Sofia 1929</t>
   </si>
   <si>
     <t>Orlando Pirates</t>
+  </si>
+  <si>
+    <t>Podbrezová</t>
   </si>
   <si>
     <t>Al Ittihad</t>
@@ -755,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,13 +951,13 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1038,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1112,13 +1121,13 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1133,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>6.57</v>
       </c>
       <c r="M3">
-        <v>3.65</v>
+        <v>4.41</v>
       </c>
       <c r="N3">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="O3">
         <v>3.72</v>
@@ -1160,58 +1169,58 @@
         <v>3.04</v>
       </c>
       <c r="T3">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="U3">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W3">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="X3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z3">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AA3">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="AB3">
         <v>1.8</v>
       </c>
       <c r="AC3">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AD3">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AE3">
         <v>1.32</v>
       </c>
       <c r="AF3">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AG3">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AH3">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="AI3">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AJ3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL3">
         <v>1.17</v>
@@ -1220,7 +1229,7 @@
         <v>1.18</v>
       </c>
       <c r="AN3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AO3">
         <v>-1</v>
@@ -1235,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AT3">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="AU3">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="AV3">
         <v>2.19</v>
@@ -1250,10 +1259,10 @@
         <v>1.72</v>
       </c>
       <c r="AX3">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AY3">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1282,13 +1291,13 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1378,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1452,13 +1461,13 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1473,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1548,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1622,13 +1631,13 @@
         <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1643,127 +1652,127 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1772,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BD6" s="3">
         <v>45797.5</v>
@@ -1789,16 +1798,16 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1813,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L7">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>9.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1888,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1959,16 +1968,16 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1983,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2058,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2132,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2153,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L9">
         <v>2.12</v>
@@ -2228,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2302,13 +2311,13 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2323,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2398,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2472,13 +2481,13 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2493,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2568,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2639,16 +2648,16 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2663,43 +2672,43 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2708,49 +2717,49 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -2792,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="BD12" s="3">
         <v>45797.58333333334</v>
@@ -2809,16 +2818,16 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2833,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2908,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2979,16 +2988,16 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3003,43 +3012,43 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L14">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -3048,49 +3057,49 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3132,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC14">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="3">
         <v>45797.58333333334</v>
@@ -3152,13 +3161,13 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3173,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L15">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="N15">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="O15">
         <v>2.58</v>
@@ -3194,25 +3203,25 @@
         <v>1.59</v>
       </c>
       <c r="R15">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="T15">
         <v>2.77</v>
       </c>
       <c r="U15">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="X15">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y15">
         <v>9.6</v>
@@ -3221,58 +3230,58 @@
         <v>1.25</v>
       </c>
       <c r="AA15">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AB15">
+        <v>1.93</v>
+      </c>
+      <c r="AC15">
         <v>1.85</v>
       </c>
-      <c r="AC15">
-        <v>1.8</v>
-      </c>
       <c r="AD15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE15">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AF15">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AG15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AH15">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI15">
         <v>1.11</v>
       </c>
       <c r="AJ15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL15">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM15">
         <v>1.27</v>
       </c>
       <c r="AN15">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.49</v>
       </c>
       <c r="AR15">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AS15">
         <v>2.18</v>
@@ -3281,19 +3290,19 @@
         <v>3.2</v>
       </c>
       <c r="AU15">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="AV15">
         <v>2.38</v>
       </c>
       <c r="AW15">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AX15">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AY15">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3322,13 +3331,13 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3343,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L16">
         <v>3.3</v>
@@ -3394,10 +3403,10 @@
         <v>2.45</v>
       </c>
       <c r="AB16">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AC16">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AD16">
         <v>5</v>
@@ -3418,10 +3427,10 @@
         <v>1.04</v>
       </c>
       <c r="AJ16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL16">
         <v>1.8</v>
@@ -3489,16 +3498,16 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3513,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3540,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3570,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3588,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3656,19 +3665,19 @@
         <v>45797</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3683,127 +3692,127 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L18">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="M18">
-        <v>4.45</v>
+        <v>3.81</v>
       </c>
       <c r="N18">
-        <v>5.3</v>
+        <v>2.63</v>
       </c>
       <c r="O18">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="U18">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AE18">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AF18">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL18">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AX18">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AY18">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3812,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="3">
-        <v>45797.66666666666</v>
+        <v>45797.625</v>
       </c>
     </row>
     <row r="19" spans="1:56">
@@ -3826,16 +3835,16 @@
         <v>45797</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
         <v>120</v>
@@ -3853,127 +3862,127 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="N19">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="O19">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="P19">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="Q19">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="R19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S19">
-        <v>2.75</v>
+        <v>2.89</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="U19">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="W19">
         <v>1.08</v>
       </c>
       <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>9.1</v>
+      </c>
+      <c r="Z19">
+        <v>1.24</v>
+      </c>
+      <c r="AA19">
+        <v>3.36</v>
+      </c>
+      <c r="AB19">
+        <v>1.91</v>
+      </c>
+      <c r="AC19">
+        <v>1.79</v>
+      </c>
+      <c r="AD19">
+        <v>3.15</v>
+      </c>
+      <c r="AE19">
+        <v>1.27</v>
+      </c>
+      <c r="AF19">
+        <v>1.77</v>
+      </c>
+      <c r="AG19">
+        <v>1.94</v>
+      </c>
+      <c r="AH19">
+        <v>6.3</v>
+      </c>
+      <c r="AI19">
         <v>1.06</v>
       </c>
-      <c r="Y19">
-        <v>8.5</v>
-      </c>
-      <c r="Z19">
-        <v>1.33</v>
-      </c>
-      <c r="AA19">
-        <v>3.25</v>
-      </c>
-      <c r="AB19">
-        <v>1.95</v>
-      </c>
-      <c r="AC19">
-        <v>1.8</v>
-      </c>
-      <c r="AD19">
-        <v>3.45</v>
-      </c>
-      <c r="AE19">
-        <v>1.3</v>
-      </c>
-      <c r="AF19">
-        <v>1.75</v>
-      </c>
-      <c r="AG19">
-        <v>2</v>
-      </c>
-      <c r="AH19">
-        <v>6.5</v>
-      </c>
-      <c r="AI19">
-        <v>1.1</v>
-      </c>
       <c r="AJ19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL19">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AM19">
         <v>1.28</v>
       </c>
       <c r="AN19">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR19">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AS19">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT19">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU19">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AV19">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="AW19">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="AX19">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AY19">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3982,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BC19">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="BD19" s="3">
-        <v>45797.66666666666</v>
+        <v>45797.625</v>
       </c>
     </row>
     <row r="20" spans="1:56">
@@ -3996,7 +4005,7 @@
         <v>45797</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -4008,7 +4017,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4023,127 +4032,127 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L20">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="M20">
-        <v>3.23</v>
+        <v>4.45</v>
       </c>
       <c r="N20">
-        <v>2.95</v>
+        <v>5.3</v>
       </c>
       <c r="O20">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="P20">
-        <v>8.1</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="R20">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="S20">
-        <v>2.69</v>
+        <v>3.75</v>
       </c>
       <c r="T20">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="U20">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="V20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="X20">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="Z20">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AA20">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="AB20">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AC20">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="AD20">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="AE20">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
       <c r="AF20">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AG20">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="AI20">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="AJ20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL20">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AM20">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AN20">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AR20">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>2.85</v>
+        <v>1.8</v>
       </c>
       <c r="AT20">
-        <v>3.8</v>
+        <v>2.23</v>
       </c>
       <c r="AU20">
-        <v>2.55</v>
+        <v>4.35</v>
       </c>
       <c r="AV20">
-        <v>1.94</v>
+        <v>3.05</v>
       </c>
       <c r="AW20">
-        <v>1.58</v>
+        <v>2.35</v>
       </c>
       <c r="AX20">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="AY20">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4152,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="BC20">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="BD20" s="3">
-        <v>45797.6875</v>
+        <v>45797.66666666666</v>
       </c>
     </row>
     <row r="21" spans="1:56">
@@ -4166,7 +4175,7 @@
         <v>45797</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
@@ -4178,7 +4187,7 @@
         <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4193,127 +4202,127 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L21">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="M21">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="O21">
-        <v>2.11</v>
+        <v>1.73</v>
       </c>
       <c r="P21">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q21">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="R21">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="S21">
-        <v>2.44</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="V21">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="W21">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="X21">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Y21">
         <v>8.5</v>
       </c>
       <c r="Z21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA21">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="AB21">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AC21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD21">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="AE21">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AF21">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="AG21">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AH21">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI21">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL21">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AM21">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AN21">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="AS21">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="AT21">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU21">
+        <v>3.4</v>
+      </c>
+      <c r="AV21">
         <v>2.48</v>
       </c>
-      <c r="AV21">
-        <v>1.91</v>
-      </c>
       <c r="AW21">
-        <v>1.56</v>
+        <v>1.94</v>
       </c>
       <c r="AX21">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AY21">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4322,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>2.11</v>
+        <v>1.73</v>
       </c>
       <c r="BC21">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="BD21" s="3">
-        <v>45797.79166666666</v>
+        <v>45797.66666666666</v>
       </c>
     </row>
     <row r="22" spans="1:56">
@@ -4336,19 +4345,19 @@
         <v>45797</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4363,124 +4372,124 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22">
-        <v>1.53</v>
+        <v>2.26</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>2.85</v>
       </c>
       <c r="O22">
+        <v>1.83</v>
+      </c>
+      <c r="P22">
+        <v>8.1</v>
+      </c>
+      <c r="Q22">
+        <v>2.24</v>
+      </c>
+      <c r="R22">
         <v>1.36</v>
       </c>
-      <c r="P22">
-        <v>7.5</v>
-      </c>
-      <c r="Q22">
-        <v>4.33</v>
-      </c>
-      <c r="R22">
-        <v>1.5</v>
-      </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="T22">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="U22">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="V22">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="W22">
+        <v>1.05</v>
+      </c>
+      <c r="X22">
+        <v>1.01</v>
+      </c>
+      <c r="Y22">
+        <v>8.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.32</v>
+      </c>
+      <c r="AA22">
+        <v>3.3</v>
+      </c>
+      <c r="AB22">
+        <v>1.94</v>
+      </c>
+      <c r="AC22">
+        <v>1.79</v>
+      </c>
+      <c r="AD22">
+        <v>3.45</v>
+      </c>
+      <c r="AE22">
+        <v>1.26</v>
+      </c>
+      <c r="AF22">
+        <v>1.72</v>
+      </c>
+      <c r="AG22">
+        <v>2.07</v>
+      </c>
+      <c r="AH22">
+        <v>6.05</v>
+      </c>
+      <c r="AI22">
         <v>1.06</v>
       </c>
-      <c r="X22">
-        <v>1.08</v>
-      </c>
-      <c r="Y22">
-        <v>7.5</v>
-      </c>
-      <c r="Z22">
-        <v>1.45</v>
-      </c>
-      <c r="AA22">
-        <v>2.7</v>
-      </c>
-      <c r="AB22">
-        <v>2.35</v>
-      </c>
-      <c r="AC22">
-        <v>1.57</v>
-      </c>
-      <c r="AD22">
-        <v>4.75</v>
-      </c>
-      <c r="AE22">
-        <v>1.18</v>
-      </c>
-      <c r="AF22">
-        <v>2.5</v>
-      </c>
-      <c r="AG22">
-        <v>1.5</v>
-      </c>
-      <c r="AH22">
-        <v>9.5</v>
-      </c>
-      <c r="AI22">
-        <v>1.05</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AL22">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AM22">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AN22">
-        <v>2.45</v>
+        <v>1.54</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR22">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AS22">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AT22">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AU22">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AV22">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AW22">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AX22">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AY22">
         <v>1.2</v>
@@ -4492,12 +4501,352 @@
         <v>0</v>
       </c>
       <c r="BB22">
+        <v>1.83</v>
+      </c>
+      <c r="BC22">
+        <v>2.24</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>45797.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56">
+      <c r="A23" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23">
+        <v>2.65</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2.66</v>
+      </c>
+      <c r="O23">
+        <v>2.11</v>
+      </c>
+      <c r="P23">
+        <v>7.1</v>
+      </c>
+      <c r="Q23">
+        <v>1.99</v>
+      </c>
+      <c r="R23">
+        <v>1.47</v>
+      </c>
+      <c r="S23">
+        <v>2.6</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
+        <v>1.28</v>
+      </c>
+      <c r="V23">
+        <v>8.5</v>
+      </c>
+      <c r="W23">
+        <v>1.01</v>
+      </c>
+      <c r="X23">
+        <v>1.04</v>
+      </c>
+      <c r="Y23">
+        <v>8.5</v>
+      </c>
+      <c r="Z23">
+        <v>1.37</v>
+      </c>
+      <c r="AA23">
+        <v>2.66</v>
+      </c>
+      <c r="AB23">
+        <v>2.3</v>
+      </c>
+      <c r="AC23">
+        <v>1.6</v>
+      </c>
+      <c r="AD23">
+        <v>4.1</v>
+      </c>
+      <c r="AE23">
+        <v>1.16</v>
+      </c>
+      <c r="AF23">
+        <v>1.9</v>
+      </c>
+      <c r="AG23">
+        <v>1.86</v>
+      </c>
+      <c r="AH23">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AI23">
+        <v>1.02</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL23">
+        <v>1.41</v>
+      </c>
+      <c r="AM23">
+        <v>1.32</v>
+      </c>
+      <c r="AN23">
+        <v>1.42</v>
+      </c>
+      <c r="AO23">
+        <v>-1</v>
+      </c>
+      <c r="AP23">
+        <v>1.45</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>2.23</v>
+      </c>
+      <c r="AS23">
+        <v>2.9</v>
+      </c>
+      <c r="AT23">
+        <v>3.9</v>
+      </c>
+      <c r="AU23">
+        <v>2.48</v>
+      </c>
+      <c r="AV23">
+        <v>1.91</v>
+      </c>
+      <c r="AW23">
+        <v>1.56</v>
+      </c>
+      <c r="AX23">
+        <v>1.34</v>
+      </c>
+      <c r="AY23">
+        <v>1.19</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>2.11</v>
+      </c>
+      <c r="BC23">
+        <v>1.99</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>45797.79166666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56">
+      <c r="A24" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24">
+        <v>1.53</v>
+      </c>
+      <c r="M24">
+        <v>3.75</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
         <v>1.36</v>
       </c>
-      <c r="BC22">
+      <c r="P24">
+        <v>7.5</v>
+      </c>
+      <c r="Q24">
         <v>4.33</v>
       </c>
-      <c r="BD22" s="3">
+      <c r="R24">
+        <v>1.5</v>
+      </c>
+      <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>3.4</v>
+      </c>
+      <c r="U24">
+        <v>1.3</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>1.06</v>
+      </c>
+      <c r="X24">
+        <v>1.08</v>
+      </c>
+      <c r="Y24">
+        <v>7.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.45</v>
+      </c>
+      <c r="AA24">
+        <v>2.7</v>
+      </c>
+      <c r="AB24">
+        <v>2.35</v>
+      </c>
+      <c r="AC24">
+        <v>1.57</v>
+      </c>
+      <c r="AD24">
+        <v>4.75</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>2.5</v>
+      </c>
+      <c r="AG24">
+        <v>1.5</v>
+      </c>
+      <c r="AH24">
+        <v>9.5</v>
+      </c>
+      <c r="AI24">
+        <v>1.05</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL24">
+        <v>1.1</v>
+      </c>
+      <c r="AM24">
+        <v>1.2</v>
+      </c>
+      <c r="AN24">
+        <v>2.45</v>
+      </c>
+      <c r="AO24">
+        <v>-1</v>
+      </c>
+      <c r="AP24">
+        <v>1.49</v>
+      </c>
+      <c r="AQ24">
+        <v>1.79</v>
+      </c>
+      <c r="AR24">
+        <v>2.25</v>
+      </c>
+      <c r="AS24">
+        <v>2.9</v>
+      </c>
+      <c r="AT24">
+        <v>3.9</v>
+      </c>
+      <c r="AU24">
+        <v>2.4</v>
+      </c>
+      <c r="AV24">
+        <v>1.9</v>
+      </c>
+      <c r="AW24">
+        <v>1.55</v>
+      </c>
+      <c r="AX24">
+        <v>1.34</v>
+      </c>
+      <c r="AY24">
+        <v>1.2</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>1.36</v>
+      </c>
+      <c r="BC24">
+        <v>4.33</v>
+      </c>
+      <c r="BD24" s="3">
         <v>45797.85416666666</v>
       </c>
     </row>

--- a/jogos_2025-05-20.xlsx
+++ b/jogos_2025-05-20.xlsx
@@ -289,21 +289,21 @@
     <t>Al Taawon</t>
   </si>
   <si>
+    <t>Djurgården W</t>
+  </si>
+  <si>
     <t>Al Urooba</t>
   </si>
   <si>
+    <t>Slavia</t>
+  </si>
+  <si>
+    <t>Torpedo Kutaisi</t>
+  </si>
+  <si>
     <t>Shabab Al Ahli Dubai</t>
   </si>
   <si>
-    <t>Djurgården W</t>
-  </si>
-  <si>
-    <t>Torpedo Kutaisi</t>
-  </si>
-  <si>
-    <t>Slavia</t>
-  </si>
-  <si>
     <t>Septemvri Sofia</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>Al Shabab</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
     <t>Manchester City</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
@@ -355,21 +355,21 @@
     <t>Al Riyadh</t>
   </si>
   <si>
+    <t>AIK Women</t>
+  </si>
+  <si>
     <t>Al Bataeh</t>
   </si>
   <si>
+    <t>Torpedo BelAZ</t>
+  </si>
+  <si>
+    <t>Kolkheti Poti</t>
+  </si>
+  <si>
     <t>Dibba Al Hisn</t>
   </si>
   <si>
-    <t>AIK Women</t>
-  </si>
-  <si>
-    <t>Kolkheti Poti</t>
-  </si>
-  <si>
-    <t>Torpedo BelAZ</t>
-  </si>
-  <si>
     <t>Lokomotiv Sofia 1929</t>
   </si>
   <si>
@@ -382,10 +382,10 @@
     <t>Al Ittihad</t>
   </si>
   <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
     <t>AFC Bournemouth</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
   </si>
   <si>
     <t>Deportivo Recoleta</t>
@@ -975,76 +975,76 @@
         <v>127</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ2" t="s">
         <v>128</v>
@@ -1053,13 +1053,13 @@
         <v>128</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AO2">
         <v>-1</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BD2" s="3">
         <v>45797.46527777778</v>
@@ -1145,13 +1145,13 @@
         <v>127</v>
       </c>
       <c r="L3">
-        <v>6.57</v>
+        <v>5.75</v>
       </c>
       <c r="M3">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="N3">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="O3">
         <v>3.72</v>
@@ -1163,55 +1163,55 @@
         <v>1.32</v>
       </c>
       <c r="R3">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S3">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="T3">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U3">
         <v>1.4</v>
       </c>
       <c r="V3">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="W3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X3">
         <v>1.02</v>
       </c>
       <c r="Y3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AA3">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="AB3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC3">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AD3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="AG3">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AH3">
-        <v>5.97</v>
+        <v>5.5</v>
       </c>
       <c r="AI3">
         <v>1.09</v>
@@ -1223,46 +1223,46 @@
         <v>128</v>
       </c>
       <c r="AL3">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AM3">
         <v>1.18</v>
       </c>
       <c r="AN3">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR3">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS3">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AT3">
         <v>3.4</v>
       </c>
       <c r="AU3">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AV3">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="AW3">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AX3">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AY3">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1315,13 +1315,13 @@
         <v>127</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1333,58 +1333,58 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ4" t="s">
         <v>128</v>
@@ -1393,13 +1393,13 @@
         <v>128</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO4">
         <v>-1</v>
@@ -1485,13 +1485,13 @@
         <v>127</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>127</v>
       </c>
       <c r="L6">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="N6">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O6">
         <v>1.55</v>
@@ -1673,58 +1673,58 @@
         <v>2.62</v>
       </c>
       <c r="R6">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S6">
         <v>3.2</v>
       </c>
       <c r="T6">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="U6">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="V6">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>1.15</v>
       </c>
       <c r="X6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z6">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AA6">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AB6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC6">
+        <v>2.2</v>
+      </c>
+      <c r="AD6">
         <v>2.25</v>
       </c>
-      <c r="AD6">
-        <v>2.5</v>
-      </c>
       <c r="AE6">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AF6">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AG6">
         <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="AI6">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AJ6" t="s">
         <v>128</v>
@@ -1733,7 +1733,7 @@
         <v>128</v>
       </c>
       <c r="AL6">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AM6">
         <v>1.18</v>
@@ -1745,34 +1745,34 @@
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AR6">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AS6">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="AT6">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AU6">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="AV6">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="AW6">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AX6">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="AY6">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>127</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2004,67 +2004,67 @@
         <v>9.859999999999999</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AJ8" t="s">
         <v>128</v>
@@ -2073,46 +2073,46 @@
         <v>128</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="BD8" s="3">
         <v>45797.54166666666</v>
@@ -2174,43 +2174,43 @@
         <v>2.95</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AB9">
         <v>1.83</v>
@@ -2219,22 +2219,22 @@
         <v>1.91</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AJ9" t="s">
         <v>128</v>
@@ -2243,46 +2243,46 @@
         <v>128</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BD9" s="3">
         <v>45797.55555555555</v>
@@ -2308,10 +2308,10 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>91</v>
@@ -2335,40 +2335,40 @@
         <v>127</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2377,34 +2377,34 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AJ10" t="s">
         <v>128</v>
@@ -2413,13 +2413,13 @@
         <v>128</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="BD10" s="3">
         <v>45797.58333333334</v>
@@ -2505,76 +2505,76 @@
         <v>127</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ11" t="s">
         <v>128</v>
@@ -2583,13 +2583,13 @@
         <v>128</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AO11">
         <v>-1</v>
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BD11" s="3">
         <v>45797.58333333334</v>
@@ -2648,7 +2648,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -2675,76 +2675,76 @@
         <v>127</v>
       </c>
       <c r="L12">
-        <v>1.61</v>
+        <v>3.08</v>
       </c>
       <c r="M12">
-        <v>3.88</v>
+        <v>3.19</v>
       </c>
       <c r="N12">
-        <v>4.2</v>
+        <v>2.41</v>
       </c>
       <c r="O12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="S12">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="U12">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="V12">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="Z12">
-        <v>1.12</v>
+        <v>1.62</v>
       </c>
       <c r="AA12">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="AB12">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="AC12">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="AD12">
-        <v>2.35</v>
+        <v>5.5</v>
       </c>
       <c r="AE12">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AF12">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="AG12">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AH12">
-        <v>4.05</v>
+        <v>11</v>
       </c>
       <c r="AI12">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="AJ12" t="s">
         <v>128</v>
@@ -2753,13 +2753,13 @@
         <v>128</v>
       </c>
       <c r="AL12">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AM12">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AN12">
-        <v>2.04</v>
+        <v>1.37</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC12">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="3">
         <v>45797.58333333334</v>
@@ -2845,13 +2845,13 @@
         <v>127</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -3015,40 +3015,40 @@
         <v>127</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -3057,34 +3057,34 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AJ14" t="s">
         <v>128</v>
@@ -3093,13 +3093,13 @@
         <v>128</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3141,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD14" s="3">
         <v>45797.58333333334</v>
@@ -3185,13 +3185,13 @@
         <v>127</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
         <v>2.58</v>
@@ -3203,58 +3203,58 @@
         <v>1.59</v>
       </c>
       <c r="R15">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T15">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="U15">
         <v>1.37</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W15">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X15">
         <v>1.03</v>
       </c>
       <c r="Y15">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z15">
         <v>1.25</v>
       </c>
       <c r="AA15">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="AB15">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AC15">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AD15">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AF15">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AG15">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AH15">
         <v>6.5</v>
       </c>
       <c r="AI15">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AJ15" t="s">
         <v>128</v>
@@ -3269,40 +3269,40 @@
         <v>1.27</v>
       </c>
       <c r="AN15">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AR15">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AS15">
         <v>2.18</v>
       </c>
       <c r="AT15">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AU15">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AV15">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AW15">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AX15">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AY15">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>3.3</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="O16">
         <v>3.1</v>
@@ -3403,7 +3403,7 @@
         <v>2.45</v>
       </c>
       <c r="AB16">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AC16">
         <v>1.5</v>
@@ -3704,19 +3704,19 @@
         <v>2.63</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T18">
         <v>2.05</v>
@@ -3725,28 +3725,28 @@
         <v>1.74</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD18">
         <v>1.95</v>
@@ -3755,16 +3755,16 @@
         <v>1.76</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AJ18" t="s">
         <v>128</v>
@@ -3773,46 +3773,46 @@
         <v>128</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD18" s="3">
         <v>45797.625</v>
@@ -3865,13 +3865,13 @@
         <v>127</v>
       </c>
       <c r="L19">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="M19">
-        <v>3.13</v>
+        <v>3.45</v>
       </c>
       <c r="N19">
-        <v>3.9</v>
+        <v>3.01</v>
       </c>
       <c r="O19">
         <v>1.62</v>
@@ -3913,10 +3913,10 @@
         <v>3.36</v>
       </c>
       <c r="AB19">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AC19">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AD19">
         <v>3.15</v>
@@ -4035,76 +4035,76 @@
         <v>127</v>
       </c>
       <c r="L20">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="M20">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="O20">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="P20">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Q20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R20">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S20">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X20">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="Y20">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z20">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AA20">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="AB20">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="AC20">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="AD20">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="AE20">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="AF20">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AG20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI20">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AJ20" t="s">
         <v>128</v>
@@ -4113,46 +4113,46 @@
         <v>128</v>
       </c>
       <c r="AL20">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AM20">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AN20">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ20">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AS20">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="AT20">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="AU20">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="AV20">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="AW20">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="AX20">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="AY20">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="BC20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="BD20" s="3">
         <v>45797.66666666666</v>
@@ -4205,76 +4205,76 @@
         <v>127</v>
       </c>
       <c r="L21">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>4.45</v>
       </c>
       <c r="N21">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="O21">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P21">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Q21">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R21">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S21">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="U21">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="X21">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="Y21">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z21">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AA21">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="AB21">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="AC21">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="AD21">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="AE21">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="AF21">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AH21">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="AI21">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AJ21" t="s">
         <v>128</v>
@@ -4283,46 +4283,46 @@
         <v>128</v>
       </c>
       <c r="AL21">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AM21">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AN21">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AR21">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AS21">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AT21">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="AU21">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="AV21">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="AW21">
-        <v>1.94</v>
+        <v>2.35</v>
       </c>
       <c r="AX21">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="AY21">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="BC21">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="BD21" s="3">
         <v>45797.66666666666</v>
@@ -4375,13 +4375,13 @@
         <v>127</v>
       </c>
       <c r="L22">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N22">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
         <v>1.83</v>
@@ -4393,58 +4393,58 @@
         <v>2.24</v>
       </c>
       <c r="R22">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S22">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="T22">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="U22">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V22">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="X22">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y22">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z22">
         <v>1.32</v>
       </c>
       <c r="AA22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB22">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AC22">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AD22">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="AE22">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AF22">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AG22">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="AI22">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AJ22" t="s">
         <v>128</v>
@@ -4453,46 +4453,46 @@
         <v>128</v>
       </c>
       <c r="AL22">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AM22">
         <v>1.28</v>
       </c>
       <c r="AN22">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AR22">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="AS22">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AT22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AU22">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AV22">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="AW22">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AX22">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AY22">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4545,13 +4545,13 @@
         <v>127</v>
       </c>
       <c r="L23">
+        <v>2.7</v>
+      </c>
+      <c r="M23">
+        <v>3.05</v>
+      </c>
+      <c r="N23">
         <v>2.65</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>2.66</v>
       </c>
       <c r="O23">
         <v>2.11</v>
@@ -4563,34 +4563,34 @@
         <v>1.99</v>
       </c>
       <c r="R23">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S23">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="U23">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V23">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="W23">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X23">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Y23">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z23">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AA23">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="AB23">
         <v>2.3</v>
@@ -4599,22 +4599,22 @@
         <v>1.6</v>
       </c>
       <c r="AD23">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE23">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF23">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AG23">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AH23">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI23">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AJ23" t="s">
         <v>128</v>
@@ -4623,46 +4623,46 @@
         <v>128</v>
       </c>
       <c r="AL23">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AM23">
         <v>1.32</v>
       </c>
       <c r="AN23">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AO23">
         <v>-1</v>
       </c>
       <c r="AP23">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AR23">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="AS23">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AT23">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AU23">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AV23">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="AW23">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AX23">
         <v>1.34</v>
       </c>
       <c r="AY23">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AZ23">
         <v>0</v>

--- a/jogos_2025-05-20.xlsx
+++ b/jogos_2025-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -220,21 +220,18 @@
     <t>19:00</t>
   </si>
   <si>
-    <t>20:30</t>
-  </si>
-  <si>
     <t>UAE Arabian Gulf League</t>
   </si>
   <si>
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Georgia Erovnuli Liga</t>
+  </si>
+  <si>
     <t>Belarus Vysheyshaya Liga</t>
   </si>
   <si>
-    <t>Georgia Erovnuli Liga</t>
-  </si>
-  <si>
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>2024/2025</t>
   </si>
   <si>
@@ -271,12 +265,12 @@
     <t>Hebar 1918</t>
   </si>
   <si>
+    <t>Dila</t>
+  </si>
+  <si>
     <t>Naftan</t>
   </si>
   <si>
-    <t>Dila</t>
-  </si>
-  <si>
     <t>HJK</t>
   </si>
   <si>
@@ -289,21 +283,21 @@
     <t>Al Taawon</t>
   </si>
   <si>
+    <t>Torpedo Kutaisi</t>
+  </si>
+  <si>
+    <t>Shabab Al Ahli Dubai</t>
+  </si>
+  <si>
+    <t>Slavia</t>
+  </si>
+  <si>
     <t>Djurgården W</t>
   </si>
   <si>
     <t>Al Urooba</t>
   </si>
   <si>
-    <t>Slavia</t>
-  </si>
-  <si>
-    <t>Torpedo Kutaisi</t>
-  </si>
-  <si>
-    <t>Shabab Al Ahli Dubai</t>
-  </si>
-  <si>
     <t>Septemvri Sofia</t>
   </si>
   <si>
@@ -316,33 +310,33 @@
     <t>Al Shabab</t>
   </si>
   <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
     <t>Sportivo Trinidense</t>
   </si>
   <si>
-    <t>River Plate</t>
-  </si>
-  <si>
     <t>Bani Yas</t>
   </si>
   <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
+    <t>Samgurali</t>
+  </si>
+  <si>
     <t>Neman Grodno</t>
   </si>
   <si>
-    <t>Samgurali</t>
-  </si>
-  <si>
     <t>SJK</t>
   </si>
   <si>
@@ -355,21 +349,21 @@
     <t>Al Riyadh</t>
   </si>
   <si>
+    <t>Kolkheti Poti</t>
+  </si>
+  <si>
+    <t>Dibba Al Hisn</t>
+  </si>
+  <si>
+    <t>Torpedo BelAZ</t>
+  </si>
+  <si>
     <t>AIK Women</t>
   </si>
   <si>
     <t>Al Bataeh</t>
   </si>
   <si>
-    <t>Torpedo BelAZ</t>
-  </si>
-  <si>
-    <t>Kolkheti Poti</t>
-  </si>
-  <si>
-    <t>Dibba Al Hisn</t>
-  </si>
-  <si>
     <t>Lokomotiv Sofia 1929</t>
   </si>
   <si>
@@ -382,19 +376,19 @@
     <t>Al Ittihad</t>
   </si>
   <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
     <t>Wolverhampton Wanderers</t>
   </si>
   <si>
-    <t>AFC Bournemouth</t>
-  </si>
-  <si>
     <t>Deportivo Recoleta</t>
   </si>
   <si>
     <t>Nacional Asunción</t>
-  </si>
-  <si>
-    <t>Platense</t>
   </si>
   <si>
     <t>incomplete</t>
@@ -764,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -948,16 +942,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -972,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L2">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N2">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O2">
         <v>1.2</v>
@@ -1023,16 +1017,16 @@
         <v>5.5</v>
       </c>
       <c r="AB2">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AC2">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AD2">
         <v>2.05</v>
       </c>
       <c r="AE2">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AF2">
         <v>1.91</v>
@@ -1047,10 +1041,10 @@
         <v>1.25</v>
       </c>
       <c r="AJ2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL2">
         <v>1.05</v>
@@ -1065,34 +1059,34 @@
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1118,16 +1112,16 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1142,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L3">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="M3">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="O3">
         <v>3.72</v>
@@ -1163,79 +1157,79 @@
         <v>1.32</v>
       </c>
       <c r="R3">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="S3">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="T3">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="U3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="V3">
-        <v>7.1</v>
+        <v>8.75</v>
       </c>
       <c r="W3">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="X3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z3">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AA3">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AB3">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AC3">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AD3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF3">
-        <v>1.97</v>
+        <v>2.41</v>
       </c>
       <c r="AG3">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AH3">
-        <v>5.5</v>
+        <v>5.58</v>
       </c>
       <c r="AI3">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AJ3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL3">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM3">
         <v>1.18</v>
       </c>
       <c r="AN3">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
         <v>1.64</v>
@@ -1247,13 +1241,13 @@
         <v>2.57</v>
       </c>
       <c r="AT3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU3">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AV3">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="AW3">
         <v>1.73</v>
@@ -1288,16 +1282,16 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1312,94 +1306,94 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L4">
-        <v>7.8</v>
+        <v>1.55</v>
       </c>
       <c r="M4">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>1.33</v>
+        <v>5.2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R4">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="S4">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T4">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="U4">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V4">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="W4">
         <v>1.08</v>
       </c>
       <c r="X4">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y4">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z4">
+        <v>1.29</v>
+      </c>
+      <c r="AA4">
+        <v>3.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.85</v>
+      </c>
+      <c r="AC4">
+        <v>1.8</v>
+      </c>
+      <c r="AD4">
+        <v>3.4</v>
+      </c>
+      <c r="AE4">
         <v>1.3</v>
       </c>
-      <c r="AA4">
-        <v>3.3</v>
-      </c>
-      <c r="AB4">
-        <v>1.95</v>
-      </c>
-      <c r="AC4">
-        <v>1.85</v>
-      </c>
-      <c r="AD4">
-        <v>3.1</v>
-      </c>
-      <c r="AE4">
-        <v>1.33</v>
-      </c>
       <c r="AF4">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="AG4">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AH4">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AI4">
         <v>1.1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL4">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AM4">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AN4">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="AO4">
         <v>-1</v>
@@ -1441,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BD4" s="3">
         <v>45797.5</v>
@@ -1458,16 +1452,16 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1482,94 +1476,94 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>5.1</v>
+        <v>1.31</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB5">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AC5">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AO5">
         <v>-1</v>
@@ -1611,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BD5" s="3">
         <v>45797.5</v>
@@ -1628,16 +1622,16 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1652,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L6">
         <v>1.75</v>
@@ -1673,13 +1667,13 @@
         <v>2.62</v>
       </c>
       <c r="R6">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="S6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T6">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="U6">
         <v>1.57</v>
@@ -1688,19 +1682,19 @@
         <v>5</v>
       </c>
       <c r="W6">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X6">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Y6">
         <v>15</v>
       </c>
       <c r="Z6">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AA6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AB6">
         <v>1.55</v>
@@ -1709,70 +1703,70 @@
         <v>2.2</v>
       </c>
       <c r="AD6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AE6">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AF6">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AG6">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AH6">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AJ6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL6">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM6">
         <v>1.18</v>
       </c>
       <c r="AN6">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AR6">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AS6">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT6">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AU6">
         <v>4.8</v>
       </c>
       <c r="AV6">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AW6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AX6">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="AY6">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1798,16 +1792,16 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1822,94 +1816,94 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L7">
+        <v>1.87</v>
+      </c>
+      <c r="M7">
+        <v>3.45</v>
+      </c>
+      <c r="N7">
+        <v>3.6</v>
+      </c>
+      <c r="O7">
+        <v>1.57</v>
+      </c>
+      <c r="P7">
+        <v>8.5</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>1.38</v>
+      </c>
+      <c r="S7">
+        <v>2.7</v>
+      </c>
+      <c r="T7">
+        <v>2.8</v>
+      </c>
+      <c r="U7">
+        <v>1.36</v>
+      </c>
+      <c r="V7">
+        <v>6.75</v>
+      </c>
+      <c r="W7">
+        <v>1.06</v>
+      </c>
+      <c r="X7">
+        <v>1.06</v>
+      </c>
+      <c r="Y7">
+        <v>8.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.33</v>
+      </c>
+      <c r="AA7">
+        <v>3.25</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1.67</v>
+      </c>
+      <c r="AD7">
+        <v>3.8</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
+        <v>1.76</v>
+      </c>
+      <c r="AG7">
         <v>1.85</v>
       </c>
-      <c r="M7">
-        <v>3.35</v>
-      </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>1.89</v>
-      </c>
-      <c r="AC7">
-        <v>1.72</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO7">
         <v>-1</v>
@@ -1951,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BD7" s="3">
         <v>45797.54166666666</v>
@@ -1968,16 +1962,16 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1992,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L8">
         <v>1.21</v>
@@ -2067,10 +2061,10 @@
         <v>1.22</v>
       </c>
       <c r="AJ8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL8">
         <v>1.05</v>
@@ -2138,16 +2132,16 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2162,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L9">
         <v>2.12</v>
@@ -2237,10 +2231,10 @@
         <v>1.12</v>
       </c>
       <c r="AJ9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL9">
         <v>1.35</v>
@@ -2308,16 +2302,16 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2332,94 +2326,94 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L10">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="M10">
-        <v>3.88</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>2.53</v>
+        <v>3.25</v>
       </c>
       <c r="R10">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="S10">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="T10">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="U10">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="V10">
-        <v>4.55</v>
+        <v>6.5</v>
       </c>
       <c r="W10">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AA10">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="AB10">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="AC10">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="AD10">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE10">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AG10">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
       <c r="AH10">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI10">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL10">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AM10">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AN10">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2461,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BC10">
-        <v>2.53</v>
+        <v>3.25</v>
       </c>
       <c r="BD10" s="3">
         <v>45797.58333333334</v>
@@ -2478,16 +2472,16 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2502,127 +2496,127 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11">
-        <v>3.7</v>
+        <v>1.15</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="N11">
+        <v>10.5</v>
+      </c>
+      <c r="O11">
+        <v>1.17</v>
+      </c>
+      <c r="P11">
+        <v>23</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>1.22</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.73</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>1.22</v>
+      </c>
+      <c r="X11">
+        <v>1.01</v>
+      </c>
+      <c r="Y11">
+        <v>29</v>
+      </c>
+      <c r="Z11">
+        <v>1.08</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <v>1.32</v>
+      </c>
+      <c r="AC11">
+        <v>3.09</v>
+      </c>
+      <c r="AD11">
         <v>1.8</v>
       </c>
-      <c r="O11">
-        <v>2.6</v>
-      </c>
-      <c r="P11">
-        <v>12.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.53</v>
-      </c>
-      <c r="R11">
-        <v>1.33</v>
-      </c>
-      <c r="S11">
-        <v>3.25</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.5</v>
-      </c>
-      <c r="V11">
-        <v>5.5</v>
-      </c>
-      <c r="W11">
-        <v>1.13</v>
-      </c>
-      <c r="X11">
+      <c r="AE11">
+        <v>1.85</v>
+      </c>
+      <c r="AF11">
+        <v>1.91</v>
+      </c>
+      <c r="AG11">
+        <v>1.8</v>
+      </c>
+      <c r="AH11">
+        <v>2.85</v>
+      </c>
+      <c r="AI11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL11">
         <v>1.03</v>
       </c>
-      <c r="Y11">
-        <v>10</v>
-      </c>
-      <c r="Z11">
-        <v>1.22</v>
-      </c>
-      <c r="AA11">
-        <v>3.95</v>
-      </c>
-      <c r="AB11">
-        <v>1.73</v>
-      </c>
-      <c r="AC11">
-        <v>2.08</v>
-      </c>
-      <c r="AD11">
-        <v>2.8</v>
-      </c>
-      <c r="AE11">
-        <v>1.4</v>
-      </c>
-      <c r="AF11">
-        <v>1.67</v>
-      </c>
-      <c r="AG11">
-        <v>2.1</v>
-      </c>
-      <c r="AH11">
-        <v>3.8</v>
-      </c>
-      <c r="AI11">
-        <v>1.25</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL11">
-        <v>1.93</v>
-      </c>
       <c r="AM11">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AN11">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="AO11">
         <v>-1</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2631,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>2.6</v>
+        <v>1.17</v>
       </c>
       <c r="BC11">
-        <v>1.53</v>
+        <v>5</v>
       </c>
       <c r="BD11" s="3">
         <v>45797.58333333334</v>
@@ -2651,13 +2645,13 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2672,49 +2666,49 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L12">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="M12">
-        <v>3.19</v>
+        <v>2.79</v>
       </c>
       <c r="N12">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R12">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="T12">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="U12">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="W12">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Y12">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="Z12">
         <v>1.62</v>
@@ -2723,43 +2717,43 @@
         <v>2.3</v>
       </c>
       <c r="AB12">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="AC12">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AD12">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="AE12">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF12">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AH12">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AI12">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL12">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM12">
         <v>1.35</v>
       </c>
       <c r="AN12">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -2801,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BD12" s="3">
         <v>45797.58333333334</v>
@@ -2818,16 +2812,16 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2842,94 +2836,94 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L13">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M13">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="N13">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AC13">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AJ13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO13">
         <v>-1</v>
@@ -2941,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -2971,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="BD13" s="3">
         <v>45797.58333333334</v>
@@ -2988,16 +2982,16 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3012,127 +3006,127 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="N14">
-        <v>9.5</v>
+        <v>1.75</v>
       </c>
       <c r="O14">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="P14">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>1.53</v>
       </c>
       <c r="R14">
+        <v>1.33</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
+        <v>1.5</v>
+      </c>
+      <c r="V14">
+        <v>5.5</v>
+      </c>
+      <c r="W14">
+        <v>1.13</v>
+      </c>
+      <c r="X14">
+        <v>1.03</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
         <v>1.22</v>
       </c>
-      <c r="S14">
-        <v>4</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>1.73</v>
-      </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="W14">
+      <c r="AA14">
+        <v>3.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.61</v>
+      </c>
+      <c r="AC14">
+        <v>2.05</v>
+      </c>
+      <c r="AD14">
+        <v>2.2</v>
+      </c>
+      <c r="AE14">
+        <v>1.62</v>
+      </c>
+      <c r="AF14">
+        <v>1.67</v>
+      </c>
+      <c r="AG14">
+        <v>2.1</v>
+      </c>
+      <c r="AH14">
+        <v>3.8</v>
+      </c>
+      <c r="AI14">
+        <v>1.25</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL14">
+        <v>1.93</v>
+      </c>
+      <c r="AM14">
         <v>1.22</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>1.08</v>
-      </c>
-      <c r="AA14">
-        <v>7</v>
-      </c>
-      <c r="AB14">
-        <v>1.4</v>
-      </c>
-      <c r="AC14">
-        <v>2.75</v>
-      </c>
-      <c r="AD14">
-        <v>1.78</v>
-      </c>
-      <c r="AE14">
-        <v>1.93</v>
-      </c>
-      <c r="AF14">
-        <v>1.91</v>
-      </c>
-      <c r="AG14">
-        <v>1.8</v>
-      </c>
-      <c r="AH14">
-        <v>2.85</v>
-      </c>
-      <c r="AI14">
-        <v>1.4</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL14">
-        <v>1.03</v>
-      </c>
-      <c r="AM14">
-        <v>1.08</v>
-      </c>
       <c r="AN14">
-        <v>5</v>
+        <v>1.27</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3141,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="BC14">
-        <v>5</v>
+        <v>1.53</v>
       </c>
       <c r="BD14" s="3">
         <v>45797.58333333334</v>
@@ -3158,16 +3152,16 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3182,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="M15">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="N15">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O15">
         <v>2.58</v>
@@ -3203,64 +3197,64 @@
         <v>1.59</v>
       </c>
       <c r="R15">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S15">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T15">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="U15">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V15">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X15">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Y15">
         <v>9</v>
       </c>
       <c r="Z15">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AA15">
+        <v>3.3</v>
+      </c>
+      <c r="AB15">
+        <v>1.89</v>
+      </c>
+      <c r="AC15">
+        <v>1.81</v>
+      </c>
+      <c r="AD15">
         <v>3.5</v>
       </c>
-      <c r="AB15">
-        <v>1.91</v>
-      </c>
-      <c r="AC15">
-        <v>1.87</v>
-      </c>
-      <c r="AD15">
-        <v>3.2</v>
-      </c>
       <c r="AE15">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF15">
         <v>1.8</v>
       </c>
       <c r="AG15">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH15">
-        <v>6.5</v>
+        <v>6.23</v>
       </c>
       <c r="AI15">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL15">
         <v>1.3</v>
@@ -3269,40 +3263,40 @@
         <v>1.27</v>
       </c>
       <c r="AN15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ15">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AR15">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AS15">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="AT15">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="AU15">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AV15">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="AW15">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AX15">
         <v>1.58</v>
       </c>
       <c r="AY15">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3328,16 +3322,16 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3352,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L16">
         <v>3.3</v>
@@ -3403,10 +3397,10 @@
         <v>2.45</v>
       </c>
       <c r="AB16">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AC16">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AD16">
         <v>5</v>
@@ -3427,10 +3421,10 @@
         <v>1.04</v>
       </c>
       <c r="AJ16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL16">
         <v>1.8</v>
@@ -3498,16 +3492,16 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3522,127 +3516,127 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3651,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD17" s="3">
         <v>45797.625</v>
@@ -3668,16 +3662,16 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3692,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L18">
         <v>2.23</v>
@@ -3767,10 +3761,10 @@
         <v>1.33</v>
       </c>
       <c r="AJ18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL18">
         <v>1.4</v>
@@ -3838,10 +3832,10 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>98</v>
@@ -3862,127 +3856,127 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L19">
-        <v>2.01</v>
+        <v>1.59</v>
       </c>
       <c r="M19">
-        <v>3.45</v>
+        <v>3.82</v>
       </c>
       <c r="N19">
-        <v>3.01</v>
+        <v>4.4</v>
       </c>
       <c r="O19">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="P19">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Q19">
-        <v>2.49</v>
+        <v>3.2</v>
       </c>
       <c r="R19">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S19">
-        <v>2.89</v>
+        <v>3.4</v>
       </c>
       <c r="T19">
-        <v>2.81</v>
+        <v>2.38</v>
       </c>
       <c r="U19">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="V19">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="W19">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="Y19">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="Z19">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AA19">
-        <v>3.36</v>
+        <v>4.33</v>
       </c>
       <c r="AB19">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AC19">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="AD19">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="AE19">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AF19">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AG19">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>6.3</v>
+        <v>4.65</v>
       </c>
       <c r="AI19">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AJ19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL19">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AM19">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AN19">
-        <v>1.87</v>
+        <v>2.65</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AQ19">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AS19">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AT19">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
       <c r="AU19">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AV19">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="AW19">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="AX19">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AY19">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3991,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="BC19">
-        <v>2.49</v>
+        <v>3.2</v>
       </c>
       <c r="BD19" s="3">
         <v>45797.625</v>
@@ -4008,16 +4002,16 @@
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4032,127 +4026,127 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L20">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="M20">
-        <v>3.3</v>
+        <v>4.45</v>
       </c>
       <c r="N20">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="O20">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P20">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R20">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S20">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="U20">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="X20">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z20">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AA20">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="AB20">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="AC20">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="AD20">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="AE20">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="AF20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="AI20">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AJ20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL20">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AM20">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AN20">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AR20">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AT20">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="AU20">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="AV20">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="AW20">
-        <v>1.94</v>
+        <v>2.35</v>
       </c>
       <c r="AX20">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="AY20">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4161,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="BC20">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="BD20" s="3">
         <v>45797.66666666666</v>
@@ -4178,16 +4172,16 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4202,127 +4196,127 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L21">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="M21">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="O21">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="P21">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Q21">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R21">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S21">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.4</v>
+      </c>
+      <c r="V21">
+        <v>8</v>
+      </c>
+      <c r="W21">
+        <v>1.08</v>
+      </c>
+      <c r="X21">
+        <v>1.06</v>
+      </c>
+      <c r="Y21">
+        <v>8.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.33</v>
+      </c>
+      <c r="AA21">
+        <v>3.25</v>
+      </c>
+      <c r="AB21">
+        <v>1.95</v>
+      </c>
+      <c r="AC21">
+        <v>1.8</v>
+      </c>
+      <c r="AD21">
+        <v>3.45</v>
+      </c>
+      <c r="AE21">
+        <v>1.3</v>
+      </c>
+      <c r="AF21">
+        <v>1.75</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>6.5</v>
+      </c>
+      <c r="AI21">
+        <v>1.1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL21">
+        <v>1.35</v>
+      </c>
+      <c r="AM21">
+        <v>1.28</v>
+      </c>
+      <c r="AN21">
         <v>1.62</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>1.17</v>
-      </c>
-      <c r="X21">
-        <v>1.01</v>
-      </c>
-      <c r="Y21">
-        <v>13</v>
-      </c>
-      <c r="Z21">
-        <v>1.15</v>
-      </c>
-      <c r="AA21">
-        <v>5.25</v>
-      </c>
-      <c r="AB21">
-        <v>1.45</v>
-      </c>
-      <c r="AC21">
-        <v>2.63</v>
-      </c>
-      <c r="AD21">
-        <v>2.2</v>
-      </c>
-      <c r="AE21">
-        <v>1.61</v>
-      </c>
-      <c r="AF21">
-        <v>1.62</v>
-      </c>
-      <c r="AG21">
-        <v>2.2</v>
-      </c>
-      <c r="AH21">
-        <v>3.9</v>
-      </c>
-      <c r="AI21">
-        <v>1.25</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL21">
-        <v>1.15</v>
-      </c>
-      <c r="AM21">
-        <v>1.15</v>
-      </c>
-      <c r="AN21">
-        <v>2.45</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ21">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AS21">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="AT21">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="AU21">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="AV21">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="AW21">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="AX21">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="AY21">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4331,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="BC21">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="BD21" s="3">
         <v>45797.66666666666</v>
@@ -4348,16 +4342,16 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4372,16 +4366,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L22">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="O22">
         <v>1.83</v>
@@ -4393,64 +4387,64 @@
         <v>2.24</v>
       </c>
       <c r="R22">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S22">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="T22">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U22">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="W22">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X22">
         <v>1.03</v>
       </c>
       <c r="Y22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z22">
         <v>1.32</v>
       </c>
       <c r="AA22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AC22">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AD22">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="AE22">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AF22">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AG22">
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AI22">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL22">
         <v>1.33</v>
@@ -4459,40 +4453,40 @@
         <v>1.28</v>
       </c>
       <c r="AN22">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AQ22">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AR22">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AS22">
+        <v>2.88</v>
+      </c>
+      <c r="AT22">
+        <v>3.62</v>
+      </c>
+      <c r="AU22">
         <v>2.7</v>
       </c>
-      <c r="AT22">
-        <v>3.6</v>
-      </c>
-      <c r="AU22">
-        <v>2.62</v>
-      </c>
       <c r="AV22">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AW22">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AX22">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AY22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4518,40 +4512,40 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>125</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>127</v>
-      </c>
       <c r="L23">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="M23">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="N23">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="O23">
         <v>2.11</v>
@@ -4563,103 +4557,103 @@
         <v>1.99</v>
       </c>
       <c r="R23">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S23">
         <v>2.5</v>
       </c>
       <c r="T23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U23">
         <v>1.3</v>
       </c>
       <c r="V23">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="W23">
         <v>1.06</v>
       </c>
       <c r="X23">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Y23">
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AA23">
         <v>2.75</v>
       </c>
       <c r="AB23">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AC23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AE23">
         <v>1.2</v>
       </c>
       <c r="AF23">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AG23">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AH23">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AI23">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AJ23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL23">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AM23">
         <v>1.32</v>
       </c>
       <c r="AN23">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AO23">
         <v>-1</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AQ23">
         <v>1.68</v>
       </c>
       <c r="AR23">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AS23">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="AT23">
         <v>3.6</v>
       </c>
       <c r="AU23">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AV23">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AW23">
         <v>1.69</v>
       </c>
       <c r="AX23">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AY23">
         <v>1.25</v>
@@ -4678,176 +4672,6 @@
       </c>
       <c r="BD23" s="3">
         <v>45797.79166666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56">
-      <c r="A24" s="2">
-        <v>45797</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24">
-        <v>1.53</v>
-      </c>
-      <c r="M24">
-        <v>3.75</v>
-      </c>
-      <c r="N24">
-        <v>7</v>
-      </c>
-      <c r="O24">
-        <v>1.36</v>
-      </c>
-      <c r="P24">
-        <v>7.5</v>
-      </c>
-      <c r="Q24">
-        <v>4.33</v>
-      </c>
-      <c r="R24">
-        <v>1.5</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
-      <c r="T24">
-        <v>3.4</v>
-      </c>
-      <c r="U24">
-        <v>1.3</v>
-      </c>
-      <c r="V24">
-        <v>10</v>
-      </c>
-      <c r="W24">
-        <v>1.06</v>
-      </c>
-      <c r="X24">
-        <v>1.08</v>
-      </c>
-      <c r="Y24">
-        <v>7.5</v>
-      </c>
-      <c r="Z24">
-        <v>1.45</v>
-      </c>
-      <c r="AA24">
-        <v>2.7</v>
-      </c>
-      <c r="AB24">
-        <v>2.35</v>
-      </c>
-      <c r="AC24">
-        <v>1.57</v>
-      </c>
-      <c r="AD24">
-        <v>4.75</v>
-      </c>
-      <c r="AE24">
-        <v>1.18</v>
-      </c>
-      <c r="AF24">
-        <v>2.5</v>
-      </c>
-      <c r="AG24">
-        <v>1.5</v>
-      </c>
-      <c r="AH24">
-        <v>9.5</v>
-      </c>
-      <c r="AI24">
-        <v>1.05</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL24">
-        <v>1.1</v>
-      </c>
-      <c r="AM24">
-        <v>1.2</v>
-      </c>
-      <c r="AN24">
-        <v>2.45</v>
-      </c>
-      <c r="AO24">
-        <v>-1</v>
-      </c>
-      <c r="AP24">
-        <v>1.49</v>
-      </c>
-      <c r="AQ24">
-        <v>1.79</v>
-      </c>
-      <c r="AR24">
-        <v>2.25</v>
-      </c>
-      <c r="AS24">
-        <v>2.9</v>
-      </c>
-      <c r="AT24">
-        <v>3.9</v>
-      </c>
-      <c r="AU24">
-        <v>2.4</v>
-      </c>
-      <c r="AV24">
-        <v>1.9</v>
-      </c>
-      <c r="AW24">
-        <v>1.55</v>
-      </c>
-      <c r="AX24">
-        <v>1.34</v>
-      </c>
-      <c r="AY24">
-        <v>1.2</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>1.36</v>
-      </c>
-      <c r="BC24">
-        <v>4.33</v>
-      </c>
-      <c r="BD24" s="3">
-        <v>45797.85416666666</v>
       </c>
     </row>
   </sheetData>
